--- a/templates/LocAdjustment.xlsx
+++ b/templates/LocAdjustment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E31C5-34A8-44AD-ABC8-9C688DBFC00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F3921-5308-4842-B619-39025E0E790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>OH (On Hand Loc)</t>
   </si>
@@ -629,6 +629,9 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -688,6 +691,9 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
@@ -743,6 +749,9 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
@@ -793,6 +802,9 @@
       <c r="B8" t="s">
         <v>46</v>
       </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -845,6 +857,9 @@
       </c>
       <c r="B10" t="s">
         <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>

--- a/templates/LocAdjustment.xlsx
+++ b/templates/LocAdjustment.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F3921-5308-4842-B619-39025E0E790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3270C-2307-48AB-9A75-0DC47DBD520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location Adjustment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,32 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>OH (On Hand Loc)</t>
   </si>
   <si>
-    <t>MS-No track</t>
-  </si>
-  <si>
-    <t>MS-Lot track item</t>
-  </si>
-  <si>
     <t>Item Name</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Stock Loc No</t>
-  </si>
-  <si>
-    <t>Stock LOC ID</t>
-  </si>
-  <si>
-    <t>Quantity_Serial Nos</t>
-  </si>
-  <si>
     <t>Transaction Date</t>
   </si>
   <si>
@@ -61,69 +45,18 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Unit Cost, Material</t>
-  </si>
-  <si>
-    <t>Unit Cost, Labor</t>
-  </si>
-  <si>
-    <t>Unit Cost, Mtl Ohd</t>
-  </si>
-  <si>
-    <t>Unit Cost, Labor Ohd</t>
-  </si>
-  <si>
-    <t>Unit Cost, Fringe Ohd</t>
-  </si>
-  <si>
-    <t>Unit Cost, Mach Ohd</t>
-  </si>
-  <si>
-    <t>Unit Cost, Sub Mtl</t>
-  </si>
-  <si>
-    <t>Unit Cost, Sub Lab</t>
-  </si>
-  <si>
-    <t>Unit Cost, Freight</t>
-  </si>
-  <si>
-    <t>Unit Cost, Landing</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>1006 (100 SB Test Proj-01)</t>
-  </si>
-  <si>
-    <t>Lot No</t>
-  </si>
-  <si>
-    <t>Lot Expiration Date</t>
-  </si>
-  <si>
-    <t>6644-6</t>
-  </si>
-  <si>
     <t>10 (Denver)</t>
   </si>
   <si>
-    <t>Test Lot Track</t>
-  </si>
-  <si>
     <t>CON (Consigned)</t>
   </si>
   <si>
-    <t>NN1 (non nettable)</t>
-  </si>
-  <si>
     <t>100 Home Project</t>
   </si>
   <si>
-    <t>LT-1</t>
-  </si>
-  <si>
     <t>multidiv serial (Lot and serial track)</t>
   </si>
   <si>
@@ -175,34 +108,13 @@
     <t>C9TNY</t>
   </si>
   <si>
-    <t>WWCYB</t>
-  </si>
-  <si>
     <t>multidiv LOT (Lot track)</t>
   </si>
   <si>
-    <t>OH1</t>
-  </si>
-  <si>
-    <t>LT1</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
     <t>7Q6WJ</t>
   </si>
   <si>
     <t>LT2</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>W3SA0</t>
-  </si>
-  <si>
-    <t>scrap</t>
   </si>
   <si>
     <t>Cycle Count</t>
@@ -218,19 +130,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -266,12 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +475,7 @@
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
@@ -586,539 +490,186 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5">
-        <v>44292</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2"/>
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5">
-        <v>44292</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44292</v>
+      </c>
+      <c r="K4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44292</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="5">
-        <v>44292</v>
+      <c r="J6" t="s">
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5">
-        <v>44292</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5">
-        <v>44292</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>44292</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB06652-2BC0-42CE-AADC-40B9F44B2386}">
-  <dimension ref="A1:U6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1221</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44311</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1221</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44311</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1221</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44311</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>213</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>121</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>